--- a/2022/04-zdechov/krpál děti - VÝSLEDKY 2022.xlsx
+++ b/2022/04-zdechov/krpál děti - VÝSLEDKY 2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CELKOVÉ VÝSLEDKY" sheetId="1" state="visible" r:id="rId2"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="145">
   <si>
     <t xml:space="preserve"> ZDĚCHOVSKÝ KRPÁL     2.7.2022</t>
   </si>
@@ -457,9 +457,6 @@
   </si>
   <si>
     <t xml:space="preserve">Sebastián </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pakáč</t>
   </si>
   <si>
     <t xml:space="preserve">Karolína Walter</t>
@@ -610,7 +607,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -651,10 +648,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -671,10 +664,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -683,20 +672,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -713,10 +694,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -739,19 +716,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -769,10 +738,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -844,9 +809,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1190160</xdr:colOff>
+      <xdr:colOff>1189800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>732960</xdr:rowOff>
+      <xdr:rowOff>732600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -859,8 +824,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7775280" y="62280"/>
-          <a:ext cx="590040" cy="670680"/>
+          <a:off x="7774200" y="62280"/>
+          <a:ext cx="589680" cy="670320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -886,9 +851,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1190160</xdr:colOff>
+      <xdr:colOff>1189800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>732960</xdr:rowOff>
+      <xdr:rowOff>732600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -901,8 +866,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7927920" y="62280"/>
-          <a:ext cx="590040" cy="670680"/>
+          <a:off x="7929720" y="62280"/>
+          <a:ext cx="589680" cy="670320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -923,9 +888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1190160</xdr:colOff>
+      <xdr:colOff>1189800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>732960</xdr:rowOff>
+      <xdr:rowOff>732600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -938,8 +903,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7927920" y="62280"/>
-          <a:ext cx="590040" cy="670680"/>
+          <a:off x="7929720" y="62280"/>
+          <a:ext cx="589680" cy="670320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -965,9 +930,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1190160</xdr:colOff>
+      <xdr:colOff>1189800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>732960</xdr:rowOff>
+      <xdr:rowOff>732600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -980,8 +945,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8149320" y="62280"/>
-          <a:ext cx="590040" cy="670680"/>
+          <a:off x="8150040" y="62280"/>
+          <a:ext cx="589680" cy="670320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1002,9 +967,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1190160</xdr:colOff>
+      <xdr:colOff>1189800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>732960</xdr:rowOff>
+      <xdr:rowOff>732600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1017,8 +982,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8149320" y="62280"/>
-          <a:ext cx="590040" cy="670680"/>
+          <a:off x="8150040" y="62280"/>
+          <a:ext cx="589680" cy="670320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1044,9 +1009,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1190160</xdr:colOff>
+      <xdr:colOff>1189800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>732960</xdr:rowOff>
+      <xdr:rowOff>732600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1060,7 +1025,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7624800" y="62280"/>
-          <a:ext cx="590040" cy="670680"/>
+          <a:ext cx="589680" cy="670320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1081,9 +1046,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1190160</xdr:colOff>
+      <xdr:colOff>1189800</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1440</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1097,7 +1062,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7624800" y="852840"/>
-          <a:ext cx="590040" cy="129600"/>
+          <a:ext cx="589680" cy="129240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1118,9 +1083,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1190160</xdr:colOff>
+      <xdr:colOff>1189800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>732960</xdr:rowOff>
+      <xdr:rowOff>732600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1134,7 +1099,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7624800" y="62280"/>
-          <a:ext cx="590040" cy="670680"/>
+          <a:ext cx="589680" cy="670320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1160,9 +1125,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1190160</xdr:colOff>
+      <xdr:colOff>1189800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>732960</xdr:rowOff>
+      <xdr:rowOff>732600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1175,8 +1140,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7504920" y="62280"/>
-          <a:ext cx="590040" cy="670680"/>
+          <a:off x="7505640" y="62280"/>
+          <a:ext cx="589680" cy="670320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1202,9 +1167,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1190160</xdr:colOff>
+      <xdr:colOff>1189800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>732960</xdr:rowOff>
+      <xdr:rowOff>732600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1217,8 +1182,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7696080" y="62280"/>
-          <a:ext cx="590040" cy="670680"/>
+          <a:off x="7696800" y="62280"/>
+          <a:ext cx="589680" cy="670320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1244,9 +1209,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1440</xdr:colOff>
+      <xdr:colOff>1080</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>184320</xdr:rowOff>
+      <xdr:rowOff>183960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1259,8 +1224,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6603840" y="785880"/>
-          <a:ext cx="560160" cy="122040"/>
+          <a:off x="6606360" y="785880"/>
+          <a:ext cx="559080" cy="121680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1281,9 +1246,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1440</xdr:colOff>
+      <xdr:colOff>1080</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1440</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1296,8 +1261,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6603840" y="785880"/>
-          <a:ext cx="560160" cy="272520"/>
+          <a:off x="6606360" y="785880"/>
+          <a:ext cx="559080" cy="272160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1323,9 +1288,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1190160</xdr:colOff>
+      <xdr:colOff>1189800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>184320</xdr:rowOff>
+      <xdr:rowOff>183960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1338,8 +1303,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6251400" y="62280"/>
-          <a:ext cx="590040" cy="122040"/>
+          <a:off x="6254640" y="62280"/>
+          <a:ext cx="589680" cy="121680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1365,16 +1330,16 @@
       <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="0.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="0.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.86"/>
   </cols>
   <sheetData>
@@ -1439,488 +1404,488 @@
       <c r="F3" s="7" t="n">
         <v>2014</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="11"/>
+      <c r="H3" s="10"/>
       <c r="I3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="12"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="n">
+      <c r="A4" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="14" t="n">
+      <c r="B4" s="13" t="n">
         <v>0.220833333333333</v>
       </c>
-      <c r="C4" s="15" t="n">
+      <c r="C4" s="12" t="n">
         <v>29</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="17" t="n">
+      <c r="F4" s="15" t="n">
         <v>2013</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16" t="s">
+      <c r="H4" s="14"/>
+      <c r="I4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="12"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="n">
+      <c r="A5" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="14" t="n">
+      <c r="B5" s="13" t="n">
         <v>0.427083333333333</v>
       </c>
-      <c r="C5" s="13" t="n">
+      <c r="C5" s="12" t="n">
         <v>85</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="13" t="n">
+      <c r="F5" s="12" t="n">
         <v>2011</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19" t="s">
+      <c r="H5" s="16"/>
+      <c r="I5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="12"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20" t="n">
+      <c r="A6" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="14" t="n">
+      <c r="B6" s="13" t="n">
         <v>0.227083333333333</v>
       </c>
-      <c r="C6" s="15" t="n">
+      <c r="C6" s="12" t="n">
         <v>56</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="17" t="n">
+      <c r="F6" s="15" t="n">
         <v>2012</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16" t="s">
+      <c r="H6" s="14"/>
+      <c r="I6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="12"/>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="28.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="n">
+      <c r="A7" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="14" t="n">
+      <c r="B7" s="13" t="n">
         <v>0.0951388888888889</v>
       </c>
-      <c r="C7" s="15" t="n">
+      <c r="C7" s="12" t="n">
         <v>39</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="17" t="n">
+      <c r="F7" s="15" t="n">
         <v>2016</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21" t="s">
+      <c r="H7" s="18"/>
+      <c r="I7" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="12"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="n">
+      <c r="A8" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="14" t="n">
+      <c r="B8" s="13" t="n">
         <v>0.10625</v>
       </c>
-      <c r="C8" s="13" t="n">
+      <c r="C8" s="12" t="n">
         <v>79</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="13" t="n">
+      <c r="F8" s="12" t="n">
         <v>2016</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24" t="s">
+      <c r="H8" s="20"/>
+      <c r="I8" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="12"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="n">
+      <c r="A9" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="B9" s="14" t="n">
+      <c r="B9" s="13" t="n">
         <v>0.411111111111111</v>
       </c>
-      <c r="C9" s="13" t="n">
+      <c r="C9" s="12" t="n">
         <v>71</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="13" t="n">
+      <c r="F9" s="12" t="n">
         <v>2010</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="18" t="s">
+      <c r="H9" s="16"/>
+      <c r="I9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="12"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="n">
+      <c r="A10" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="B10" s="14" t="n">
+      <c r="B10" s="13" t="n">
         <v>0.114583333333333</v>
       </c>
-      <c r="C10" s="15" t="n">
+      <c r="C10" s="12" t="n">
         <v>27</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="17" t="n">
+      <c r="F10" s="15" t="n">
         <v>2016</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21" t="s">
+      <c r="H10" s="18"/>
+      <c r="I10" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="12"/>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="n">
+      <c r="A11" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="B11" s="14" t="n">
+      <c r="B11" s="13" t="n">
         <v>0.235416666666667</v>
       </c>
-      <c r="C11" s="15" t="n">
+      <c r="C11" s="12" t="n">
         <v>38</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="17" t="n">
+      <c r="F11" s="15" t="n">
         <v>2013</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16" t="s">
+      <c r="H11" s="14"/>
+      <c r="I11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="12"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="n">
+      <c r="A12" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="B12" s="14" t="n">
+      <c r="B12" s="13" t="n">
         <v>0.240277777777778</v>
       </c>
-      <c r="C12" s="26" t="n">
+      <c r="C12" s="17" t="n">
         <v>62</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="17" t="n">
+      <c r="F12" s="15" t="n">
         <v>2012</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16" t="s">
+      <c r="H12" s="14"/>
+      <c r="I12" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="12"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="n">
+      <c r="A13" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="B13" s="14" t="n">
+      <c r="B13" s="13" t="n">
         <v>0.121527777777778</v>
       </c>
-      <c r="C13" s="15" t="n">
+      <c r="C13" s="12" t="n">
         <v>24</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="17" t="n">
+      <c r="F13" s="15" t="n">
         <v>2016</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21" t="s">
+      <c r="H13" s="18"/>
+      <c r="I13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="12"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="n">
+      <c r="A14" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="B14" s="14" t="n">
+      <c r="B14" s="13" t="n">
         <v>0.252777777777778</v>
       </c>
-      <c r="C14" s="15" t="n">
+      <c r="C14" s="12" t="n">
         <v>33</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="17" t="n">
+      <c r="F14" s="15" t="n">
         <v>2012</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16" t="s">
+      <c r="H14" s="14"/>
+      <c r="I14" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="J14" s="12"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="n">
+      <c r="A15" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="B15" s="14" t="n">
+      <c r="B15" s="13" t="n">
         <v>0.917361111111111</v>
       </c>
-      <c r="C15" s="15" t="n">
+      <c r="C15" s="12" t="n">
         <v>55</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="17" t="n">
+      <c r="F15" s="15" t="n">
         <v>2009</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16" t="s">
+      <c r="H15" s="14"/>
+      <c r="I15" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="12"/>
+      <c r="J15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="n">
+      <c r="A16" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="B16" s="14" t="n">
+      <c r="B16" s="13" t="n">
         <v>0.130555555555556</v>
       </c>
-      <c r="C16" s="15" t="n">
+      <c r="C16" s="12" t="n">
         <v>75</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="17" t="n">
+      <c r="F16" s="15" t="n">
         <v>2016</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21" t="s">
+      <c r="H16" s="18"/>
+      <c r="I16" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="12"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="n">
+      <c r="A17" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="B17" s="14" t="n">
+      <c r="B17" s="13" t="n">
         <v>0.850694444444444</v>
       </c>
-      <c r="C17" s="13" t="n">
+      <c r="C17" s="12" t="n">
         <v>31</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="13" t="n">
+      <c r="F17" s="12" t="n">
         <v>2008</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19" t="s">
+      <c r="H17" s="16"/>
+      <c r="I17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="12"/>
+      <c r="J17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="n">
+      <c r="A18" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="B18" s="14" t="n">
+      <c r="B18" s="13" t="n">
         <v>0.461111111111111</v>
       </c>
-      <c r="C18" s="13" t="n">
+      <c r="C18" s="12" t="n">
         <v>54</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="13" t="n">
+      <c r="F18" s="12" t="n">
         <v>2010</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="18" t="s">
+      <c r="H18" s="16"/>
+      <c r="I18" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="J18" s="12"/>
+      <c r="J18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="n">
+      <c r="A19" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="B19" s="14" t="n">
+      <c r="B19" s="13" t="n">
         <v>0.182638888888889</v>
       </c>
-      <c r="C19" s="15" t="n">
+      <c r="C19" s="12" t="n">
         <v>74</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="17" t="n">
+      <c r="F19" s="15" t="n">
         <v>2014</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16" t="s">
+      <c r="H19" s="14"/>
+      <c r="I19" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="J19" s="12"/>
+      <c r="J19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="n">
+      <c r="A20" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="B20" s="14" t="n">
+      <c r="B20" s="13" t="n">
         <v>0.211805555555556</v>
       </c>
-      <c r="C20" s="15" t="n">
+      <c r="C20" s="12" t="n">
         <v>73</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="17" t="n">
+      <c r="F20" s="15" t="n">
         <v>2018</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="12"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="n">
@@ -1932,273 +1897,273 @@
       <c r="C21" s="7" t="n">
         <v>52</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="28" t="n">
+      <c r="F21" s="23" t="n">
         <v>2016</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="G21" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27" t="s">
+      <c r="H21" s="22"/>
+      <c r="I21" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="J21" s="12"/>
+      <c r="J21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="n">
+      <c r="A22" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="B22" s="14" t="n">
+      <c r="B22" s="13" t="n">
         <v>0.214583333333333</v>
       </c>
-      <c r="C22" s="13" t="n">
+      <c r="C22" s="12" t="n">
         <v>64</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="13" t="n">
+      <c r="F22" s="12" t="n">
         <v>2014</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="12"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13" t="n">
+      <c r="A23" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="B23" s="14" t="n">
+      <c r="B23" s="13" t="n">
         <v>0.263888888888889</v>
       </c>
-      <c r="C23" s="15" t="n">
+      <c r="C23" s="12" t="n">
         <v>23</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="17" t="n">
+      <c r="F23" s="15" t="n">
         <v>2012</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16" t="s">
+      <c r="H23" s="14"/>
+      <c r="I23" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J23" s="12"/>
+      <c r="J23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13" t="n">
+      <c r="A24" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="B24" s="14" t="n">
+      <c r="B24" s="13" t="n">
         <v>0.858333333333333</v>
       </c>
-      <c r="C24" s="15" t="n">
+      <c r="C24" s="12" t="n">
         <v>32</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="17" t="n">
+      <c r="F24" s="15" t="n">
         <v>2008</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16" t="s">
+      <c r="H24" s="14"/>
+      <c r="I24" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="J24" s="12"/>
+      <c r="J24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13" t="n">
+      <c r="A25" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="B25" s="14" t="n">
+      <c r="B25" s="13" t="n">
         <v>0.276388888888889</v>
       </c>
-      <c r="C25" s="15" t="n">
+      <c r="C25" s="12" t="n">
         <v>44</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F25" s="17" t="n">
+      <c r="F25" s="15" t="n">
         <v>2012</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16" t="s">
+      <c r="H25" s="14"/>
+      <c r="I25" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="J25" s="12"/>
+      <c r="J25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13" t="n">
+      <c r="A26" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="B26" s="14" t="n">
+      <c r="B26" s="13" t="n">
         <v>0.257638888888889</v>
       </c>
-      <c r="C26" s="15" t="n">
+      <c r="C26" s="12" t="n">
         <v>45</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="F26" s="17" t="n">
+      <c r="F26" s="15" t="n">
         <v>2012</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16" t="s">
+      <c r="H26" s="14"/>
+      <c r="I26" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="J26" s="12"/>
+      <c r="J26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13" t="n">
+      <c r="A27" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="B27" s="14" t="n">
+      <c r="B27" s="13" t="n">
         <v>0.2625</v>
       </c>
-      <c r="C27" s="15" t="n">
+      <c r="C27" s="12" t="n">
         <v>22</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="F27" s="17" t="n">
+      <c r="F27" s="15" t="n">
         <v>2012</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="G27" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16" t="s">
+      <c r="H27" s="14"/>
+      <c r="I27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="J27" s="12"/>
+      <c r="J27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13" t="n">
+      <c r="A28" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="B28" s="14" t="n">
+      <c r="B28" s="13" t="n">
         <v>0.152083333333333</v>
       </c>
-      <c r="C28" s="15" t="n">
+      <c r="C28" s="12" t="n">
         <v>42</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F28" s="17" t="n">
+      <c r="F28" s="15" t="n">
         <v>2016</v>
       </c>
-      <c r="G28" s="21" t="s">
+      <c r="G28" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21" t="s">
+      <c r="H28" s="18"/>
+      <c r="I28" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="J28" s="12"/>
+      <c r="J28" s="11"/>
     </row>
     <row r="29" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13" t="n">
+      <c r="A29" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="B29" s="14" t="n">
+      <c r="B29" s="13" t="n">
         <v>0.232638888888889</v>
       </c>
-      <c r="C29" s="13" t="n">
+      <c r="C29" s="12" t="n">
         <v>53</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="17" t="n">
+      <c r="F29" s="15" t="n">
         <v>2018</v>
       </c>
-      <c r="G29" s="16" t="s">
+      <c r="G29" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16" t="s">
+      <c r="H29" s="14"/>
+      <c r="I29" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="J29" s="12"/>
+      <c r="J29" s="11"/>
     </row>
     <row r="30" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13" t="n">
+      <c r="A30" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="B30" s="14" t="n">
+      <c r="B30" s="13" t="n">
         <v>0.254166666666667</v>
       </c>
-      <c r="C30" s="13" t="n">
+      <c r="C30" s="12" t="n">
         <v>59</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="13" t="n">
+      <c r="F30" s="12" t="n">
         <v>2018</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="16" t="s">
+      <c r="H30" s="16"/>
+      <c r="I30" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="J30" s="12"/>
+      <c r="J30" s="11"/>
     </row>
     <row r="31" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="n">
@@ -2210,161 +2175,161 @@
       <c r="C31" s="7" t="n">
         <v>46</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F31" s="28" t="n">
+      <c r="F31" s="23" t="n">
         <v>2013</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10" t="s">
+      <c r="H31" s="9"/>
+      <c r="I31" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="J31" s="12"/>
+      <c r="J31" s="11"/>
     </row>
     <row r="32" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13" t="n">
+      <c r="A32" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="B32" s="14" t="n">
+      <c r="B32" s="13" t="n">
         <v>0.188888888888889</v>
       </c>
-      <c r="C32" s="15" t="n">
+      <c r="C32" s="12" t="n">
         <v>21</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="F32" s="17" t="n">
+      <c r="F32" s="15" t="n">
         <v>2015</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16" t="s">
+      <c r="H32" s="14"/>
+      <c r="I32" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="J32" s="12"/>
+      <c r="J32" s="11"/>
     </row>
     <row r="33" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13" t="n">
+      <c r="A33" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="B33" s="14" t="n">
+      <c r="B33" s="13" t="n">
         <v>0.292361111111111</v>
       </c>
-      <c r="C33" s="13" t="n">
+      <c r="C33" s="12" t="n">
         <v>34</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F33" s="13" t="n">
+      <c r="F33" s="12" t="n">
         <v>2012</v>
       </c>
-      <c r="G33" s="16" t="s">
+      <c r="G33" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19" t="s">
+      <c r="H33" s="16"/>
+      <c r="I33" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="J33" s="12"/>
+      <c r="J33" s="11"/>
     </row>
     <row r="34" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13" t="n">
+      <c r="A34" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="B34" s="14" t="n">
+      <c r="B34" s="13" t="n">
         <v>0.277777777777778</v>
       </c>
-      <c r="C34" s="15" t="n">
+      <c r="C34" s="12" t="n">
         <v>70</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="F34" s="17" t="n">
+      <c r="F34" s="15" t="n">
         <v>2015</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="G34" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16" t="s">
+      <c r="H34" s="14"/>
+      <c r="I34" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="J34" s="12"/>
+      <c r="J34" s="11"/>
     </row>
     <row r="35" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13" t="n">
+      <c r="A35" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="B35" s="14" t="n">
+      <c r="B35" s="13" t="n">
         <v>0.163194444444444</v>
       </c>
-      <c r="C35" s="13" t="n">
+      <c r="C35" s="12" t="n">
         <v>65</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F35" s="13" t="n">
+      <c r="F35" s="12" t="n">
         <v>2016</v>
       </c>
-      <c r="G35" s="23" t="s">
+      <c r="G35" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="29"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="24"/>
     </row>
     <row r="36" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13" t="n">
+      <c r="A36" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="B36" s="14" t="n">
+      <c r="B36" s="13" t="n">
         <v>0.265972222222222</v>
       </c>
-      <c r="C36" s="13" t="n">
+      <c r="C36" s="12" t="n">
         <v>28</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="F36" s="17" t="n">
+      <c r="F36" s="15" t="n">
         <v>2018</v>
       </c>
-      <c r="G36" s="16" t="s">
+      <c r="G36" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16" t="s">
+      <c r="H36" s="14"/>
+      <c r="I36" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="J36" s="29"/>
+      <c r="J36" s="24"/>
     </row>
     <row r="37" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="n">
@@ -2385,586 +2350,586 @@
       <c r="F37" s="7" t="n">
         <v>2011</v>
       </c>
-      <c r="G37" s="30" t="s">
+      <c r="G37" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11" t="s">
+      <c r="H37" s="10"/>
+      <c r="I37" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J37" s="29"/>
+      <c r="J37" s="24"/>
     </row>
     <row r="38" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13" t="n">
+      <c r="A38" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="B38" s="14" t="n">
+      <c r="B38" s="13" t="n">
         <v>0.283333333333333</v>
       </c>
-      <c r="C38" s="13" t="n">
+      <c r="C38" s="12" t="n">
         <v>75</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F38" s="13" t="n">
+      <c r="F38" s="12" t="n">
         <v>2015</v>
       </c>
-      <c r="G38" s="16" t="s">
+      <c r="G38" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="H38" s="19" t="s">
+      <c r="H38" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="I38" s="19"/>
-      <c r="J38" s="29"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="24"/>
     </row>
     <row r="39" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13" t="n">
+      <c r="A39" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="B39" s="14" t="n">
+      <c r="B39" s="13" t="n">
         <v>0.5</v>
       </c>
-      <c r="C39" s="15" t="n">
+      <c r="C39" s="12" t="n">
         <v>41</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="F39" s="17" t="n">
+      <c r="F39" s="15" t="n">
         <v>2010</v>
       </c>
-      <c r="G39" s="16" t="s">
+      <c r="G39" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16" t="s">
+      <c r="H39" s="14"/>
+      <c r="I39" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="J39" s="29"/>
+      <c r="J39" s="24"/>
     </row>
     <row r="40" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13" t="n">
+      <c r="A40" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="B40" s="14" t="n">
+      <c r="B40" s="13" t="n">
         <v>0.190972222222222</v>
       </c>
-      <c r="C40" s="13" t="n">
+      <c r="C40" s="12" t="n">
         <v>35</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="F40" s="13" t="n">
+      <c r="F40" s="12" t="n">
         <v>2015</v>
       </c>
-      <c r="G40" s="16" t="s">
+      <c r="G40" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="29"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="24"/>
     </row>
     <row r="41" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13" t="n">
+      <c r="A41" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="B41" s="14" t="n">
+      <c r="B41" s="13" t="n">
         <v>0.295138888888889</v>
       </c>
-      <c r="C41" s="13" t="n">
+      <c r="C41" s="12" t="n">
         <v>49</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F41" s="17" t="n">
+      <c r="F41" s="15" t="n">
         <v>2015</v>
       </c>
-      <c r="G41" s="16" t="s">
+      <c r="G41" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16" t="s">
+      <c r="H41" s="14"/>
+      <c r="I41" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="J41" s="29"/>
+      <c r="J41" s="24"/>
     </row>
     <row r="42" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13" t="n">
+      <c r="A42" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="B42" s="14" t="n">
+      <c r="B42" s="13" t="n">
         <v>0.200694444444444</v>
       </c>
-      <c r="C42" s="15" t="n">
+      <c r="C42" s="12" t="n">
         <v>69</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D42" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="E42" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="F42" s="17" t="n">
+      <c r="F42" s="15" t="n">
         <v>2017</v>
       </c>
-      <c r="G42" s="21" t="s">
+      <c r="G42" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21" t="s">
+      <c r="H42" s="18"/>
+      <c r="I42" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J42" s="29"/>
+      <c r="J42" s="24"/>
     </row>
     <row r="43" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13" t="n">
+      <c r="A43" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="B43" s="14" t="n">
+      <c r="B43" s="13" t="n">
         <v>0.295833333333333</v>
       </c>
-      <c r="C43" s="13" t="n">
+      <c r="C43" s="12" t="n">
         <v>57</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="F43" s="13" t="n">
+      <c r="F43" s="12" t="n">
         <v>2015</v>
       </c>
-      <c r="G43" s="16" t="s">
+      <c r="G43" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="29"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="24"/>
     </row>
     <row r="44" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13" t="n">
+      <c r="A44" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="B44" s="14" t="n">
+      <c r="B44" s="13" t="n">
         <v>0.206944444444444</v>
       </c>
-      <c r="C44" s="13" t="n">
+      <c r="C44" s="12" t="n">
         <v>83</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E44" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="F44" s="13" t="n">
+      <c r="F44" s="12" t="n">
         <v>2017</v>
       </c>
-      <c r="G44" s="23" t="s">
+      <c r="G44" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="29"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="24"/>
     </row>
     <row r="45" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13" t="n">
+      <c r="A45" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="B45" s="14" t="n">
+      <c r="B45" s="13" t="n">
         <v>0.286111111111111</v>
       </c>
-      <c r="C45" s="13" t="n">
+      <c r="C45" s="12" t="n">
         <v>82</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="F45" s="13" t="n">
+      <c r="F45" s="12" t="n">
         <v>2019</v>
       </c>
-      <c r="G45" s="25" t="s">
+      <c r="G45" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="29"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="24"/>
     </row>
     <row r="46" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13" t="n">
+      <c r="A46" s="12" t="n">
         <v>11</v>
       </c>
-      <c r="B46" s="14" t="n">
+      <c r="B46" s="13" t="n">
         <v>0.209722222222222</v>
       </c>
-      <c r="C46" s="13" t="n">
+      <c r="C46" s="12" t="n">
         <v>81</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="22" t="s">
+      <c r="E46" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="F46" s="13" t="n">
+      <c r="F46" s="12" t="n">
         <v>2017</v>
       </c>
-      <c r="G46" s="23" t="s">
+      <c r="G46" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="29"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="24"/>
     </row>
     <row r="47" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="13" t="n">
+      <c r="A47" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="B47" s="14" t="n">
+      <c r="B47" s="13" t="n">
         <v>0.428472222222222</v>
       </c>
-      <c r="C47" s="13" t="n">
+      <c r="C47" s="12" t="n">
         <v>26</v>
       </c>
-      <c r="D47" s="18" t="s">
+      <c r="D47" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="18" t="s">
+      <c r="E47" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="F47" s="13" t="n">
+      <c r="F47" s="12" t="n">
         <v>2011</v>
       </c>
-      <c r="G47" s="25" t="s">
+      <c r="G47" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19" t="s">
+      <c r="H47" s="16"/>
+      <c r="I47" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="J47" s="29"/>
+      <c r="J47" s="24"/>
     </row>
     <row r="48" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="13" t="n">
+      <c r="A48" s="12" t="n">
         <v>12</v>
       </c>
-      <c r="B48" s="14" t="n">
+      <c r="B48" s="13" t="n">
         <v>0.223611111111111</v>
       </c>
-      <c r="C48" s="13" t="n">
+      <c r="C48" s="12" t="n">
         <v>61</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="E48" s="22" t="s">
+      <c r="E48" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="F48" s="13" t="n">
+      <c r="F48" s="12" t="n">
         <v>2016</v>
       </c>
-      <c r="G48" s="23" t="s">
+      <c r="G48" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H48" s="24"/>
-      <c r="I48" s="21" t="s">
+      <c r="H48" s="20"/>
+      <c r="I48" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="J48" s="29"/>
+      <c r="J48" s="24"/>
     </row>
     <row r="49" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="13" t="n">
+      <c r="A49" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="B49" s="14" t="n">
+      <c r="B49" s="13" t="n">
         <v>0.213888888888889</v>
       </c>
-      <c r="C49" s="13" t="n">
+      <c r="C49" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E49" s="18" t="s">
+      <c r="E49" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F49" s="13" t="n">
+      <c r="F49" s="12" t="n">
         <v>2015</v>
       </c>
-      <c r="G49" s="16" t="s">
+      <c r="G49" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="29"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="24"/>
     </row>
     <row r="50" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="13" t="n">
+      <c r="A50" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="B50" s="14" t="n">
+      <c r="B50" s="13" t="n">
         <v>0.229166666666667</v>
       </c>
-      <c r="C50" s="13" t="n">
+      <c r="C50" s="12" t="n">
         <v>37</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="E50" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="F50" s="13" t="n">
+      <c r="F50" s="12" t="n">
         <v>2014</v>
       </c>
-      <c r="G50" s="16" t="s">
+      <c r="G50" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="29"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="24"/>
     </row>
     <row r="51" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="13" t="n">
+      <c r="A51" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="B51" s="14" t="n">
+      <c r="B51" s="13" t="n">
         <v>0.240277777777778</v>
       </c>
-      <c r="C51" s="13" t="n">
+      <c r="C51" s="12" t="n">
         <v>67</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="D51" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="F51" s="17" t="n">
+      <c r="F51" s="15" t="n">
         <v>2015</v>
       </c>
-      <c r="G51" s="16" t="s">
+      <c r="G51" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16" t="s">
+      <c r="H51" s="14"/>
+      <c r="I51" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="J51" s="29"/>
+      <c r="J51" s="24"/>
     </row>
     <row r="52" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="13" t="n">
+      <c r="A52" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="B52" s="14" t="n">
+      <c r="B52" s="13" t="n">
         <v>0.295138888888889</v>
       </c>
-      <c r="C52" s="13" t="n">
+      <c r="C52" s="12" t="n">
         <v>66</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="F52" s="17" t="n">
+      <c r="F52" s="15" t="n">
         <v>2012</v>
       </c>
-      <c r="G52" s="16" t="s">
+      <c r="G52" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16" t="s">
+      <c r="H52" s="14"/>
+      <c r="I52" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="J52" s="29"/>
+      <c r="J52" s="24"/>
     </row>
     <row r="53" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="13" t="n">
+      <c r="A53" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="B53" s="14" t="n">
+      <c r="B53" s="13" t="n">
         <v>0.941666666666667</v>
       </c>
-      <c r="C53" s="15" t="n">
+      <c r="C53" s="12" t="n">
         <v>25</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="D53" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="F53" s="17" t="n">
+      <c r="F53" s="15" t="n">
         <v>2008</v>
       </c>
-      <c r="G53" s="16" t="s">
+      <c r="G53" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16" t="s">
+      <c r="H53" s="14"/>
+      <c r="I53" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="J53" s="29"/>
+      <c r="J53" s="24"/>
     </row>
     <row r="54" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="13" t="n">
+      <c r="A54" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="B54" s="14" t="n">
+      <c r="B54" s="13" t="n">
         <v>0.436111111111111</v>
       </c>
-      <c r="C54" s="15" t="n">
+      <c r="C54" s="12" t="n">
         <v>43</v>
       </c>
-      <c r="D54" s="31" t="s">
+      <c r="D54" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="E54" s="31" t="s">
+      <c r="E54" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="F54" s="17" t="n">
+      <c r="F54" s="15" t="n">
         <v>2011</v>
       </c>
-      <c r="G54" s="16" t="s">
+      <c r="G54" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16" t="s">
+      <c r="H54" s="14"/>
+      <c r="I54" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="J54" s="29"/>
+      <c r="J54" s="24"/>
     </row>
     <row r="55" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="13" t="n">
+      <c r="A55" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="B55" s="14" t="n">
+      <c r="B55" s="13" t="n">
         <v>0.553472222222222</v>
       </c>
-      <c r="C55" s="13" t="n">
+      <c r="C55" s="12" t="n">
         <v>80</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="D55" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="E55" s="18" t="s">
+      <c r="E55" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F55" s="13" t="n">
+      <c r="F55" s="12" t="n">
         <v>2010</v>
       </c>
-      <c r="G55" s="25" t="s">
+      <c r="G55" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19" t="s">
+      <c r="H55" s="16"/>
+      <c r="I55" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="J55" s="29"/>
+      <c r="J55" s="24"/>
     </row>
     <row r="56" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="13" t="n">
+      <c r="A56" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="B56" s="14" t="n">
+      <c r="B56" s="13" t="n">
         <v>0.515972222222222</v>
       </c>
-      <c r="C56" s="15" t="n">
+      <c r="C56" s="12" t="n">
         <v>40</v>
       </c>
-      <c r="D56" s="16" t="s">
+      <c r="D56" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="F56" s="17" t="n">
+      <c r="F56" s="15" t="n">
         <v>2010</v>
       </c>
-      <c r="G56" s="16" t="s">
+      <c r="G56" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16" t="s">
+      <c r="H56" s="14"/>
+      <c r="I56" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="J56" s="29"/>
+      <c r="J56" s="24"/>
     </row>
     <row r="57" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="13" t="n">
+      <c r="A57" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="B57" s="14" t="n">
+      <c r="B57" s="13" t="n">
         <v>0.248611111111111</v>
       </c>
-      <c r="C57" s="13" t="n">
+      <c r="C57" s="12" t="n">
         <v>51</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="D57" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E57" s="18" t="s">
+      <c r="E57" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="F57" s="13" t="n">
+      <c r="F57" s="12" t="n">
         <v>2014</v>
       </c>
-      <c r="G57" s="16" t="s">
+      <c r="G57" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H57" s="19" t="s">
+      <c r="H57" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="I57" s="19"/>
-      <c r="J57" s="29"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="24"/>
     </row>
     <row r="58" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="32" t="n">
+      <c r="A58" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="B58" s="33" t="n">
+      <c r="B58" s="27" t="n">
         <v>0.427777777777778</v>
       </c>
-      <c r="C58" s="13" t="n">
+      <c r="C58" s="12" t="n">
         <v>84</v>
       </c>
-      <c r="D58" s="18" t="s">
+      <c r="D58" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E58" s="18" t="s">
+      <c r="E58" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="F58" s="13" t="n">
+      <c r="F58" s="12" t="n">
         <v>2019</v>
       </c>
-      <c r="G58" s="25" t="s">
+      <c r="G58" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="29"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="24"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:I58">
@@ -2997,7 +2962,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="33.57"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="0" width="5.86"/>
@@ -3034,56 +2999,56 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="n">
+      <c r="A2" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="n">
+      <c r="B2" s="13" t="n">
         <v>0.850694444444444</v>
       </c>
-      <c r="C2" s="13" t="n">
+      <c r="C2" s="12" t="n">
         <v>31</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="13" t="n">
+      <c r="F2" s="12" t="n">
         <v>2008</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="n">
+      <c r="A3" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="n">
+      <c r="B3" s="13" t="n">
         <v>0.858333333333333</v>
       </c>
-      <c r="C3" s="15" t="n">
+      <c r="C3" s="12" t="n">
         <v>32</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="17" t="n">
+      <c r="F3" s="15" t="n">
         <v>2008</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16" t="s">
+      <c r="H3" s="14"/>
+      <c r="I3" s="14" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3109,12 +3074,12 @@
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="0.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="24.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="0.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="24.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3147,56 +3112,56 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="40.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="n">
+      <c r="A2" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="n">
+      <c r="B2" s="13" t="n">
         <v>0.917361111111111</v>
       </c>
-      <c r="C2" s="15" t="n">
+      <c r="C2" s="12" t="n">
         <v>55</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="17" t="n">
+      <c r="F2" s="15" t="n">
         <v>2009</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16" t="s">
+      <c r="H2" s="14"/>
+      <c r="I2" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="42.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="n">
+      <c r="A3" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="n">
+      <c r="B3" s="13" t="n">
         <v>0.941666666666667</v>
       </c>
-      <c r="C3" s="15" t="n">
+      <c r="C3" s="12" t="n">
         <v>25</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="F3" s="17" t="n">
+      <c r="F3" s="15" t="n">
         <v>2008</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16" t="s">
+      <c r="H3" s="14"/>
+      <c r="I3" s="14" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3218,17 +3183,17 @@
   </sheetPr>
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.29"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="0" width="20.86"/>
@@ -3278,603 +3243,603 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="n">
+      <c r="A3" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="n">
+      <c r="B3" s="13" t="n">
         <v>0.211805555555556</v>
       </c>
-      <c r="C3" s="15" t="n">
+      <c r="C3" s="12" t="n">
         <v>73</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="17" t="n">
+      <c r="F3" s="15" t="n">
         <v>2018</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="n">
+      <c r="A4" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="n">
+      <c r="B4" s="13" t="n">
         <v>0.232638888888889</v>
       </c>
-      <c r="C4" s="13" t="n">
+      <c r="C4" s="12" t="n">
         <v>53</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="17" t="n">
+      <c r="F4" s="15" t="n">
         <v>2018</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16" t="s">
+      <c r="H4" s="14"/>
+      <c r="I4" s="14" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="n">
+      <c r="A5" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="n">
+      <c r="B5" s="13" t="n">
         <v>0.254166666666667</v>
       </c>
-      <c r="C5" s="13" t="n">
+      <c r="C5" s="12" t="n">
         <v>59</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="13" t="n">
+      <c r="F5" s="12" t="n">
         <v>2018</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="16" t="s">
+      <c r="H5" s="16"/>
+      <c r="I5" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="n">
+      <c r="A6" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="n">
+      <c r="B6" s="13" t="n">
         <v>0.265972222222222</v>
       </c>
-      <c r="C6" s="13" t="n">
+      <c r="C6" s="12" t="n">
         <v>28</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="F6" s="17" t="n">
+      <c r="F6" s="15" t="n">
         <v>2018</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16" t="s">
+      <c r="H6" s="14"/>
+      <c r="I6" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="29.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="n">
+      <c r="A7" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="14" t="n">
+      <c r="B7" s="13" t="n">
         <v>0.286111111111111</v>
       </c>
-      <c r="C7" s="13" t="n">
+      <c r="C7" s="12" t="n">
         <v>82</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="F7" s="13" t="n">
+      <c r="F7" s="12" t="n">
         <v>2019</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
     </row>
     <row r="8" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="32" t="n">
+      <c r="A8" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="33" t="n">
+      <c r="B8" s="27" t="n">
         <v>0.427777777777778</v>
       </c>
-      <c r="C8" s="13" t="n">
+      <c r="C8" s="12" t="n">
         <v>84</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="13" t="n">
+      <c r="F8" s="12" t="n">
         <v>2019</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="29"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
     </row>
     <row r="11" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="29"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="29"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="24"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="29"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="29"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="29"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="29"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="29"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="29"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="37"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="30"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="29"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="29"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="29"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="29"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="29"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="29"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="29"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
     </row>
     <row r="26" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="29"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="29"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="29"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="29"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="24"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="29"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="29"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="29"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="29"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="29"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="29"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="29"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="29"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="29"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="29"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="29"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="29"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="29"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="29"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="29"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="29"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="37"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="30"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="29"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="29"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="24"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="29"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="29"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="29"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="29"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="37"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3902,13 +3867,13 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="51.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="0.29"/>
@@ -3916,17 +3881,17 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="62.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -3958,696 +3923,696 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="n">
+      <c r="A3" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="n">
+      <c r="B3" s="13" t="n">
         <v>0.0951388888888889</v>
       </c>
-      <c r="C3" s="15" t="n">
+      <c r="C3" s="12" t="n">
         <v>39</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="17" t="n">
+      <c r="F3" s="15" t="n">
         <v>2016</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21" t="s">
+      <c r="H3" s="18"/>
+      <c r="I3" s="18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="n">
+      <c r="A4" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="n">
+      <c r="B4" s="13" t="n">
         <v>0.10625</v>
       </c>
-      <c r="C4" s="13" t="n">
+      <c r="C4" s="12" t="n">
         <v>79</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="13" t="n">
+      <c r="F4" s="12" t="n">
         <v>2016</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="n">
+      <c r="A5" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="n">
+      <c r="B5" s="13" t="n">
         <v>0.114583333333333</v>
       </c>
-      <c r="C5" s="15" t="n">
+      <c r="C5" s="12" t="n">
         <v>27</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="17" t="n">
+      <c r="F5" s="15" t="n">
         <v>2016</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21" t="s">
+      <c r="H5" s="18"/>
+      <c r="I5" s="18" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="n">
+      <c r="A6" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="n">
+      <c r="B6" s="13" t="n">
         <v>0.121527777777778</v>
       </c>
-      <c r="C6" s="15" t="n">
+      <c r="C6" s="12" t="n">
         <v>24</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="17" t="n">
+      <c r="F6" s="15" t="n">
         <v>2016</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21" t="s">
+      <c r="H6" s="18"/>
+      <c r="I6" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="30.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="n">
+      <c r="A7" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="14" t="n">
+      <c r="B7" s="13" t="n">
         <v>0.130555555555556</v>
       </c>
-      <c r="C7" s="15" t="n">
+      <c r="C7" s="12" t="n">
         <v>75</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="17" t="n">
+      <c r="F7" s="15" t="n">
         <v>2016</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21" t="s">
+      <c r="H7" s="18"/>
+      <c r="I7" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="n">
+      <c r="A8" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="14" t="n">
+      <c r="B8" s="13" t="n">
         <v>0.132638888888889</v>
       </c>
-      <c r="C8" s="13" t="n">
+      <c r="C8" s="12" t="n">
         <v>52</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="17" t="n">
+      <c r="F8" s="15" t="n">
         <v>2016</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21" t="s">
+      <c r="H8" s="18"/>
+      <c r="I8" s="18" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="n">
+      <c r="A9" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="14" t="n">
+      <c r="B9" s="13" t="n">
         <v>0.152083333333333</v>
       </c>
-      <c r="C9" s="15" t="n">
+      <c r="C9" s="12" t="n">
         <v>42</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="17" t="n">
+      <c r="F9" s="15" t="n">
         <v>2016</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21" t="s">
+      <c r="H9" s="18"/>
+      <c r="I9" s="18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="n">
+      <c r="A10" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="14" t="n">
+      <c r="B10" s="13" t="n">
         <v>0.163194444444444</v>
       </c>
-      <c r="C10" s="13" t="n">
+      <c r="C10" s="12" t="n">
         <v>65</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="13" t="n">
+      <c r="F10" s="12" t="n">
         <v>2016</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
     </row>
     <row r="11" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="n">
+      <c r="A11" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="14" t="n">
+      <c r="B11" s="13" t="n">
         <v>0.200694444444444</v>
       </c>
-      <c r="C11" s="15" t="n">
+      <c r="C11" s="12" t="n">
         <v>69</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="17" t="n">
+      <c r="F11" s="15" t="n">
         <v>2017</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21" t="s">
+      <c r="H11" s="18"/>
+      <c r="I11" s="18" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="n">
+      <c r="A12" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="14" t="n">
+      <c r="B12" s="13" t="n">
         <v>0.206944444444444</v>
       </c>
-      <c r="C12" s="13" t="n">
+      <c r="C12" s="12" t="n">
         <v>83</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="F12" s="13" t="n">
+      <c r="F12" s="12" t="n">
         <v>2017</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
     </row>
     <row r="13" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="n">
+      <c r="A13" s="12" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="14" t="n">
+      <c r="B13" s="13" t="n">
         <v>0.209722222222222</v>
       </c>
-      <c r="C13" s="13" t="n">
+      <c r="C13" s="12" t="n">
         <v>81</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="F13" s="13" t="n">
+      <c r="F13" s="12" t="n">
         <v>2017</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="n">
+      <c r="A14" s="12" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="14" t="n">
+      <c r="B14" s="13" t="n">
         <v>0.223611111111111</v>
       </c>
-      <c r="C14" s="13" t="n">
+      <c r="C14" s="12" t="n">
         <v>61</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="13" t="n">
+      <c r="F14" s="12" t="n">
         <v>2016</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="21" t="s">
+      <c r="H14" s="20"/>
+      <c r="I14" s="18" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="28.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="29"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="29"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="29"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="29"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="37"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="30"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="29"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="29"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="29"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="29"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="29"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="29"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="29"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
     </row>
     <row r="26" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="29"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="29"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="29"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="29"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="24"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="29"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="29"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="29"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="29"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="29"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="29"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="29"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="29"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="29"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="29"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="29"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="29"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="29"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="29"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="29"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="37"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="30"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="29"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="29"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="24"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="29"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="29"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="29"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="37"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4675,13 +4640,13 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.3"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="47.7"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="0" width="20.86"/>
@@ -4731,679 +4696,679 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="n">
+      <c r="A3" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="n">
+      <c r="B3" s="13" t="n">
         <v>0.185416666666667</v>
       </c>
-      <c r="C3" s="13" t="n">
+      <c r="C3" s="12" t="n">
         <v>86</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="13" t="n">
+      <c r="F3" s="12" t="n">
         <v>2014</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="18" t="s">
+      <c r="H3" s="16"/>
+      <c r="I3" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="29.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="n">
+      <c r="A4" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="n">
+      <c r="B4" s="13" t="n">
         <v>0.188888888888889</v>
       </c>
-      <c r="C4" s="15" t="n">
+      <c r="C4" s="12" t="n">
         <v>21</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="17" t="n">
+      <c r="F4" s="15" t="n">
         <v>2015</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16" t="s">
+      <c r="H4" s="14"/>
+      <c r="I4" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="34.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="n">
+      <c r="A5" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="n">
+      <c r="B5" s="13" t="n">
         <v>0.190972222222222</v>
       </c>
-      <c r="C5" s="13" t="n">
+      <c r="C5" s="12" t="n">
         <v>35</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="F5" s="13" t="n">
+      <c r="F5" s="12" t="n">
         <v>2015</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" customFormat="false" ht="30.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="n">
+      <c r="A6" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="n">
+      <c r="B6" s="13" t="n">
         <v>0.213888888888889</v>
       </c>
-      <c r="C6" s="13" t="n">
+      <c r="C6" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F6" s="13" t="n">
+      <c r="F6" s="12" t="n">
         <v>2015</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="n">
+      <c r="A7" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="14" t="n">
+      <c r="B7" s="13" t="n">
         <v>0.229166666666667</v>
       </c>
-      <c r="C7" s="13" t="n">
+      <c r="C7" s="12" t="n">
         <v>37</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="F7" s="13" t="n">
+      <c r="F7" s="12" t="n">
         <v>2014</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
     </row>
     <row r="8" customFormat="false" ht="30.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="42" t="n">
+      <c r="A8" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="43" t="n">
+      <c r="B8" s="35" t="n">
         <v>0.240277777777778</v>
       </c>
-      <c r="C8" s="42" t="n">
+      <c r="C8" s="34" t="n">
         <v>67</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="F8" s="45" t="n">
+      <c r="F8" s="37" t="n">
         <v>2015</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44" t="s">
+      <c r="H8" s="36"/>
+      <c r="I8" s="36" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="n">
+      <c r="A9" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="14" t="n">
+      <c r="B9" s="13" t="n">
         <v>0.248611111111111</v>
       </c>
-      <c r="C9" s="13" t="n">
+      <c r="C9" s="12" t="n">
         <v>51</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="F9" s="13" t="n">
+      <c r="F9" s="12" t="n">
         <v>2014</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="I9" s="19"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="29"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="24"/>
     </row>
     <row r="11" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="29"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="29"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="29"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="29"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="29"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="29"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="29"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="29"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="24"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="29"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="29"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="29"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="29"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="29"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="24"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="29"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="29"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="29"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
     </row>
     <row r="26" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="29"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="29"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="29"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="29"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="29"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="29"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="29"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="29"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="29"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="29"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="29"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="29"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="29"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="29"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="29"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="29"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="29"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="29"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="29"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="29"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="24"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="29"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="29"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="29"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="29"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="29"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="29"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="24"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="29"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5431,13 +5396,13 @@
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="42.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="0.29"/>
@@ -5487,789 +5452,789 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="n">
+      <c r="A3" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="n">
+      <c r="B3" s="13" t="n">
         <v>0.182638888888889</v>
       </c>
-      <c r="C3" s="15" t="n">
+      <c r="C3" s="12" t="n">
         <v>74</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="17" t="n">
+      <c r="F3" s="15" t="n">
         <v>2014</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16" t="s">
+      <c r="H3" s="14"/>
+      <c r="I3" s="14" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="34.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="n">
+      <c r="A4" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="n">
+      <c r="B4" s="13" t="n">
         <v>0.214583333333333</v>
       </c>
-      <c r="C4" s="13" t="n">
+      <c r="C4" s="12" t="n">
         <v>64</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="13" t="n">
+      <c r="F4" s="12" t="n">
         <v>2014</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" customFormat="false" ht="28.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="n">
+      <c r="A5" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="n">
+      <c r="B5" s="13" t="n">
         <v>0.277777777777778</v>
       </c>
-      <c r="C5" s="15" t="n">
+      <c r="C5" s="12" t="n">
         <v>70</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="17" t="n">
+      <c r="F5" s="15" t="n">
         <v>2015</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16" t="s">
+      <c r="H5" s="14"/>
+      <c r="I5" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="34.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="n">
+      <c r="A6" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="n">
+      <c r="B6" s="13" t="n">
         <v>0.283333333333333</v>
       </c>
-      <c r="C6" s="13" t="n">
+      <c r="C6" s="12" t="n">
         <v>75</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="13" t="n">
+      <c r="F6" s="12" t="n">
         <v>2015</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="I6" s="19"/>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="n">
+      <c r="A7" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="14" t="n">
+      <c r="B7" s="13" t="n">
         <v>0.295138888888889</v>
       </c>
-      <c r="C7" s="13" t="n">
+      <c r="C7" s="12" t="n">
         <v>49</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="17" t="n">
+      <c r="F7" s="15" t="n">
         <v>2015</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16" t="s">
+      <c r="H7" s="14"/>
+      <c r="I7" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="25.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="n">
+      <c r="A8" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="14" t="n">
+      <c r="B8" s="13" t="n">
         <v>0.295833333333333</v>
       </c>
-      <c r="C8" s="13" t="n">
+      <c r="C8" s="12" t="n">
         <v>57</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="13" t="n">
+      <c r="F8" s="12" t="n">
         <v>2015</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="40"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="29"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="29"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="40"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="49"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="29"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="29"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
     </row>
     <row r="26" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="40"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="49"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="29"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="29"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="40"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="11"/>
     </row>
     <row r="37" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="49"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="46"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="29"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="29"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="40"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="11"/>
     </row>
     <row r="46" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="49"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="46"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="29"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="29"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="29"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
+      <c r="A52" s="24"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="29"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
+      <c r="A53" s="24"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="29"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="40"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="11"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="29"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="29"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="29"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="29"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="29"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="29"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="29"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="29"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
+      <c r="A60" s="24"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="29"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="29"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="29"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="29"/>
+      <c r="A62" s="24"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="29"/>
-      <c r="B63" s="29"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="29"/>
+      <c r="A63" s="24"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="29"/>
-      <c r="B64" s="29"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="29"/>
+      <c r="A64" s="24"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="29"/>
-      <c r="B65" s="29"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="36"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="29"/>
+      <c r="A65" s="24"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6297,17 +6262,17 @@
   </sheetPr>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="41.71"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="0" width="20.86"/>
@@ -6357,676 +6322,676 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="26.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="n">
+      <c r="A3" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="n">
+      <c r="B3" s="13" t="n">
         <v>0.220833333333333</v>
       </c>
-      <c r="C3" s="15" t="n">
+      <c r="C3" s="12" t="n">
         <v>29</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="17" t="n">
+      <c r="F3" s="15" t="n">
         <v>2013</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16" t="s">
+      <c r="H3" s="14"/>
+      <c r="I3" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="26.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="n">
+      <c r="A4" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="n">
+      <c r="B4" s="13" t="n">
         <v>0.235416666666667</v>
       </c>
-      <c r="C4" s="15" t="n">
+      <c r="C4" s="12" t="n">
         <v>38</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="17" t="n">
+      <c r="F4" s="15" t="n">
         <v>2013</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16" t="s">
+      <c r="H4" s="14"/>
+      <c r="I4" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="n">
+      <c r="A5" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="n">
+      <c r="B5" s="13" t="n">
         <v>0.240277777777778</v>
       </c>
-      <c r="C5" s="26" t="n">
+      <c r="C5" s="17" t="n">
         <v>62</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="17" t="n">
+      <c r="F5" s="15" t="n">
         <v>2012</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16" t="s">
+      <c r="H5" s="14"/>
+      <c r="I5" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="26.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="n">
+      <c r="A6" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="n">
+      <c r="B6" s="13" t="n">
         <v>0.252777777777778</v>
       </c>
-      <c r="C6" s="15" t="n">
+      <c r="C6" s="12" t="n">
         <v>33</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="17" t="n">
+      <c r="F6" s="15" t="n">
         <v>2012</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16" t="s">
+      <c r="H6" s="14"/>
+      <c r="I6" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="26.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="n">
+      <c r="A7" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="14" t="n">
+      <c r="B7" s="13" t="n">
         <v>0.257638888888889</v>
       </c>
-      <c r="C7" s="15" t="n">
+      <c r="C7" s="12" t="n">
         <v>45</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="F7" s="17" t="n">
+      <c r="E7" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="15" t="n">
         <v>2012</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16" t="s">
+      <c r="H7" s="14"/>
+      <c r="I7" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="26.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="n">
+      <c r="A8" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="14" t="n">
+      <c r="B8" s="13" t="n">
         <v>0.2625</v>
       </c>
-      <c r="C8" s="15" t="n">
+      <c r="C8" s="12" t="n">
         <v>22</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="17" t="n">
+      <c r="F8" s="15" t="n">
         <v>2012</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16" t="s">
+      <c r="H8" s="14"/>
+      <c r="I8" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="26.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="n">
+      <c r="A9" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="14" t="n">
+      <c r="B9" s="13" t="n">
         <v>0.265277777777778</v>
       </c>
-      <c r="C9" s="13" t="n">
+      <c r="C9" s="12" t="n">
         <v>46</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="17" t="n">
+      <c r="F9" s="15" t="n">
         <v>2013</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16" t="s">
+      <c r="H9" s="14"/>
+      <c r="I9" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="26.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="n">
+      <c r="A10" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="14" t="n">
+      <c r="B10" s="13" t="n">
         <v>0.292361111111111</v>
       </c>
-      <c r="C10" s="13" t="n">
+      <c r="C10" s="12" t="n">
         <v>34</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="13" t="n">
+      <c r="F10" s="12" t="n">
         <v>2012</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19" t="s">
+      <c r="H10" s="16"/>
+      <c r="I10" s="16" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="n">
+      <c r="A11" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="14" t="n">
+      <c r="B11" s="13" t="n">
         <v>0.295138888888889</v>
       </c>
-      <c r="C11" s="13" t="n">
+      <c r="C11" s="12" t="n">
         <v>66</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="F11" s="17" t="n">
+      <c r="F11" s="15" t="n">
         <v>2012</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16" t="s">
+      <c r="H11" s="14"/>
+      <c r="I11" s="14" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="29"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="29"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="29"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="29"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="29"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="29"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="37"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="30"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="29"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="29"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="29"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="29"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="29"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="29"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="29"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
     </row>
     <row r="26" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="29"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="29"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="29"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="29"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="24"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="29"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="29"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="29"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="29"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="29"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="29"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="29"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="29"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="29"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="29"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="29"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="29"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="29"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="29"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="29"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="29"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="37"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="30"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="29"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="29"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="24"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="29"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="29"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="29"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="29"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="37"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="30"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="29"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7054,26 +7019,26 @@
       <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="35.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="35.13"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="0" width="19.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
     </row>
     <row r="2" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -7118,96 +7083,96 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="20" t="n">
+      <c r="A4" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="14" t="n">
+      <c r="B4" s="13" t="n">
         <v>0.227083333333333</v>
       </c>
-      <c r="C4" s="15" t="n">
+      <c r="C4" s="12" t="n">
         <v>56</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="15" t="n">
+        <v>2012</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="13" t="n">
+        <v>0.263888888888889</v>
+      </c>
+      <c r="C5" s="12" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="17" t="n">
+      <c r="F5" s="15" t="n">
         <v>2012</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16" t="s">
+      <c r="H5" s="14"/>
+      <c r="I5" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" s="14" t="n">
-        <v>0.263888888888889</v>
-      </c>
-      <c r="C5" s="15" t="n">
-        <v>23</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="F5" s="17" t="n">
+    <row r="6" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="13" t="n">
+        <v>0.276388888888889</v>
+      </c>
+      <c r="C6" s="12" t="n">
+        <v>44</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="15" t="n">
         <v>2012</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" s="14" t="n">
-        <v>0.276388888888889</v>
-      </c>
-      <c r="C6" s="15" t="n">
-        <v>44</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="17" t="n">
-        <v>2012</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16" t="s">
+      <c r="H6" s="14"/>
+      <c r="I6" s="14" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7236,7 +7201,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="34.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.28"/>
@@ -7272,137 +7237,137 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="30.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="n">
+      <c r="A2" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="n">
+      <c r="B2" s="13" t="n">
         <v>0.411111111111111</v>
       </c>
-      <c r="C2" s="13" t="n">
+      <c r="C2" s="12" t="n">
         <v>71</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="13" t="n">
+      <c r="F2" s="12" t="n">
         <v>2010</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="18" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="n">
+      <c r="A3" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="n">
+      <c r="B3" s="13" t="n">
         <v>0.427777777777778</v>
       </c>
-      <c r="C3" s="13" t="n">
+      <c r="C3" s="12" t="n">
         <v>30</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="13" t="n">
+      <c r="F3" s="12" t="n">
         <v>2011</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19" t="s">
+      <c r="H3" s="16"/>
+      <c r="I3" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="29.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="n">
+      <c r="A4" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="n">
+      <c r="B4" s="13" t="n">
         <v>0.428472222222222</v>
       </c>
-      <c r="C4" s="13" t="n">
+      <c r="C4" s="12" t="n">
         <v>26</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="F4" s="13" t="n">
+      <c r="F4" s="12" t="n">
         <v>2011</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19" t="s">
+      <c r="H4" s="16"/>
+      <c r="I4" s="16" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="n">
+      <c r="A5" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="n">
+      <c r="B5" s="13" t="n">
         <v>0.436111111111111</v>
       </c>
-      <c r="C5" s="15" t="n">
+      <c r="C5" s="12" t="n">
         <v>43</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="F5" s="17" t="n">
+      <c r="F5" s="15" t="n">
         <v>2011</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16" t="s">
+      <c r="H5" s="14"/>
+      <c r="I5" s="14" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="26.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="n">
+      <c r="A6" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="n">
+      <c r="B6" s="13" t="n">
         <v>0.553472222222222</v>
       </c>
-      <c r="C6" s="13" t="n">
+      <c r="C6" s="12" t="n">
         <v>80</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="13" t="n">
+      <c r="F6" s="12" t="n">
         <v>2010</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19" t="s">
+      <c r="H6" s="16"/>
+      <c r="I6" s="16" t="s">
         <v>32</v>
       </c>
     </row>
@@ -7428,7 +7393,7 @@
       <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30.28"/>
@@ -7479,110 +7444,110 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="33.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="n">
+      <c r="A3" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="n">
+      <c r="B3" s="13" t="n">
         <v>0.427083333333333</v>
       </c>
-      <c r="C3" s="13" t="n">
+      <c r="C3" s="12" t="n">
         <v>85</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="13" t="n">
+      <c r="F3" s="12" t="n">
         <v>2011</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19" t="s">
+      <c r="H3" s="16"/>
+      <c r="I3" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="n">
+      <c r="A4" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="n">
+      <c r="B4" s="13" t="n">
         <v>0.461111111111111</v>
       </c>
-      <c r="C4" s="13" t="n">
+      <c r="C4" s="12" t="n">
         <v>54</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="13" t="n">
+      <c r="F4" s="12" t="n">
         <v>2010</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="18" t="s">
+      <c r="H4" s="16"/>
+      <c r="I4" s="14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="n">
+      <c r="A5" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="n">
+      <c r="B5" s="13" t="n">
         <v>0.5</v>
       </c>
-      <c r="C5" s="15" t="n">
+      <c r="C5" s="12" t="n">
         <v>41</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="F5" s="17" t="n">
+      <c r="F5" s="15" t="n">
         <v>2010</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16" t="s">
+      <c r="H5" s="14"/>
+      <c r="I5" s="14" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="n">
+      <c r="A6" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="n">
+      <c r="B6" s="13" t="n">
         <v>0.515972222222222</v>
       </c>
-      <c r="C6" s="15" t="n">
+      <c r="C6" s="12" t="n">
         <v>40</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="F6" s="17" t="n">
+      <c r="F6" s="15" t="n">
         <v>2010</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16" t="s">
+      <c r="H6" s="14"/>
+      <c r="I6" s="14" t="s">
         <v>135</v>
       </c>
     </row>

--- a/2022/04-zdechov/krpál děti - VÝSLEDKY 2022.xlsx
+++ b/2022/04-zdechov/krpál děti - VÝSLEDKY 2022.xlsx
@@ -78,7 +78,7 @@
     <t xml:space="preserve">MXM Hulín</t>
   </si>
   <si>
-    <t xml:space="preserve">Tom </t>
+    <t xml:space="preserve">Tomáš</t>
   </si>
   <si>
     <t xml:space="preserve"> Grygar</t>
@@ -785,7 +785,14 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -809,9 +816,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1189800</xdr:colOff>
+      <xdr:colOff>1188720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>732600</xdr:rowOff>
+      <xdr:rowOff>731520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -824,8 +831,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7774200" y="62280"/>
-          <a:ext cx="589680" cy="670320"/>
+          <a:off x="7771680" y="62280"/>
+          <a:ext cx="588600" cy="669240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -851,9 +858,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1189800</xdr:colOff>
+      <xdr:colOff>1188720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>732600</xdr:rowOff>
+      <xdr:rowOff>731520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -866,8 +873,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7929720" y="62280"/>
-          <a:ext cx="589680" cy="670320"/>
+          <a:off x="7930440" y="62280"/>
+          <a:ext cx="588600" cy="669240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -888,9 +895,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1189800</xdr:colOff>
+      <xdr:colOff>1188720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>732600</xdr:rowOff>
+      <xdr:rowOff>731520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -903,8 +910,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7929720" y="62280"/>
-          <a:ext cx="589680" cy="670320"/>
+          <a:off x="7930440" y="62280"/>
+          <a:ext cx="588600" cy="669240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -930,9 +937,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1189800</xdr:colOff>
+      <xdr:colOff>1188720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>732600</xdr:rowOff>
+      <xdr:rowOff>731520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -945,8 +952,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8150040" y="62280"/>
-          <a:ext cx="589680" cy="670320"/>
+          <a:off x="8150760" y="62280"/>
+          <a:ext cx="588600" cy="669240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -967,9 +974,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1189800</xdr:colOff>
+      <xdr:colOff>1188720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>732600</xdr:rowOff>
+      <xdr:rowOff>731520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -982,8 +989,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8150040" y="62280"/>
-          <a:ext cx="589680" cy="670320"/>
+          <a:off x="8150760" y="62280"/>
+          <a:ext cx="588600" cy="669240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1009,9 +1016,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1189800</xdr:colOff>
+      <xdr:colOff>1188720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>732600</xdr:rowOff>
+      <xdr:rowOff>731520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1024,8 +1031,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7624800" y="62280"/>
-          <a:ext cx="589680" cy="670320"/>
+          <a:off x="7625880" y="62280"/>
+          <a:ext cx="588600" cy="669240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1046,9 +1053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1189800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:colOff>1188720</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1061,8 +1068,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7624800" y="852840"/>
-          <a:ext cx="589680" cy="129240"/>
+          <a:off x="7625880" y="852840"/>
+          <a:ext cx="588600" cy="128160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1083,9 +1090,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1189800</xdr:colOff>
+      <xdr:colOff>1188720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>732600</xdr:rowOff>
+      <xdr:rowOff>731520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1098,8 +1105,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7624800" y="62280"/>
-          <a:ext cx="589680" cy="670320"/>
+          <a:off x="7625880" y="62280"/>
+          <a:ext cx="588600" cy="669240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1125,9 +1132,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1189800</xdr:colOff>
+      <xdr:colOff>1188720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>732600</xdr:rowOff>
+      <xdr:rowOff>731520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1140,8 +1147,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7505640" y="62280"/>
-          <a:ext cx="589680" cy="670320"/>
+          <a:off x="7506360" y="62280"/>
+          <a:ext cx="588600" cy="669240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1167,9 +1174,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1189800</xdr:colOff>
+      <xdr:colOff>1188720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>732600</xdr:rowOff>
+      <xdr:rowOff>731520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1182,8 +1189,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7696800" y="62280"/>
-          <a:ext cx="589680" cy="670320"/>
+          <a:off x="7697520" y="62280"/>
+          <a:ext cx="588600" cy="669240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1208,10 +1215,10 @@
       <xdr:rowOff>62280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1080</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1157760</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>183960</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1224,8 +1231,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6606360" y="785880"/>
-          <a:ext cx="559080" cy="121680"/>
+          <a:off x="6618600" y="786240"/>
+          <a:ext cx="557640" cy="120600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1245,10 +1252,10 @@
       <xdr:rowOff>62280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1080</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1157760</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>333360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1261,8 +1268,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6606360" y="785880"/>
-          <a:ext cx="559080" cy="272160"/>
+          <a:off x="6618600" y="786240"/>
+          <a:ext cx="557640" cy="271080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1288,9 +1295,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1189800</xdr:colOff>
+      <xdr:colOff>1188720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>183960</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1303,8 +1310,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6254640" y="62280"/>
-          <a:ext cx="589680" cy="121680"/>
+          <a:off x="6267600" y="62280"/>
+          <a:ext cx="588600" cy="120600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1326,18 +1333,18 @@
   </sheetPr>
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="0.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.86"/>
@@ -2962,7 +2969,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="33.57"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="0" width="5.86"/>
@@ -3074,11 +3081,11 @@
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="0.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="0.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="24.41"/>
   </cols>
   <sheetData>
@@ -3187,7 +3194,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.57"/>
@@ -3867,7 +3874,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.71"/>
@@ -4640,7 +4647,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.71"/>
@@ -5396,7 +5403,7 @@
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.71"/>
@@ -6263,10 +6270,10 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.71"/>
@@ -7019,10 +7026,10 @@
       <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="35.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="35.12"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="0" width="19.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.41"/>
   </cols>
@@ -7201,7 +7208,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="34.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.28"/>
@@ -7393,7 +7400,7 @@
       <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30.28"/>
